--- a/Menta-MobAutomation-Project/src/main/resources/APIData.xlsx
+++ b/Menta-MobAutomation-Project/src/main/resources/APIData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="19215" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -179,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -215,31 +215,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,8 +245,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,6 +300,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -315,30 +316,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,13 +366,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,169 +540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,21 +575,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -605,11 +590,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,6 +655,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -675,152 +675,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -840,9 +840,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1169,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1236,7 +1233,7 @@
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>200</v>
       </c>
     </row>
@@ -1261,7 +1258,7 @@
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>200</v>
       </c>
     </row>
@@ -1286,7 +1283,7 @@
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>200</v>
       </c>
     </row>
@@ -1363,16 +1360,16 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="2"/>
@@ -1401,7 +1398,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
